--- a/flowing_basin/data/output_example_instance3_LPModel_Linear/history.xlsx
+++ b/flowing_basin/data/output_example_instance3_LPModel_Linear/history.xlsx
@@ -615,25 +615,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.43</v>
+        <v>5.642193924453548</v>
       </c>
       <c r="H2" t="n">
-        <v>1.43</v>
+        <v>5.642193924453548</v>
       </c>
       <c r="I2" t="n">
-        <v>1.43</v>
+        <v>5.642193924453548</v>
       </c>
       <c r="J2" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2860633528253966</v>
+        <v>-3.926130571628151</v>
       </c>
       <c r="L2" t="n">
-        <v>257.457017542857</v>
+        <v>-3533.517514465336</v>
       </c>
       <c r="M2" t="n">
-        <v>58244.5951955791</v>
+        <v>54453.62066357091</v>
       </c>
       <c r="N2" t="n">
         <v>0.5723949160277775</v>
@@ -657,25 +657,25 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.380640496800414</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="V2" t="n">
-        <v>2.380640496800414</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="W2" t="n">
-        <v>2.380640496800414</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="X2" t="n">
-        <v>2.380640496800414</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7072537611995853</v>
+        <v>0.1652970898720225</v>
       </c>
       <c r="Z2" t="n">
-        <v>636.5283850796268</v>
+        <v>148.7673808848203</v>
       </c>
       <c r="AA2" t="n">
-        <v>18099.6958169836</v>
+        <v>17611.93481278879</v>
       </c>
       <c r="AB2" t="n">
         <v>0.7886296111298895</v>
@@ -716,31 +716,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.43</v>
+        <v>5.642193924453548</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43</v>
+        <v>5.642193924453548</v>
       </c>
       <c r="I3" t="n">
-        <v>1.43</v>
+        <v>5.642193924453548</v>
       </c>
       <c r="J3" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2924839471111109</v>
+        <v>-3.919709977342436</v>
       </c>
       <c r="L3" t="n">
-        <v>263.2355523999998</v>
+        <v>-3527.738979608193</v>
       </c>
       <c r="M3" t="n">
-        <v>58507.8307479791</v>
+        <v>50925.88168396272</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.028935952122414</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -752,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.51536768509878</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.380640496800413</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="V3" t="n">
-        <v>2.380640496800413</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="W3" t="n">
-        <v>2.380640496800413</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="X3" t="n">
-        <v>2.380640496800414</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.9506404968004143</v>
+        <v>2.71959675632557</v>
       </c>
       <c r="Z3" t="n">
-        <v>-855.5764471203729</v>
+        <v>2447.637080693013</v>
       </c>
       <c r="AA3" t="n">
-        <v>17244.11936986323</v>
+        <v>20059.57189348181</v>
       </c>
       <c r="AB3" t="n">
         <v>0.7705087791213291</v>
@@ -817,31 +817,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="H4" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="I4" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="J4" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2851817045714284</v>
+        <v>-3.927012219882119</v>
       </c>
       <c r="L4" t="n">
-        <v>256.6635341142856</v>
+        <v>-3534.310997893907</v>
       </c>
       <c r="M4" t="n">
-        <v>58764.49428209339</v>
+        <v>47391.57068606881</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.028935952122414</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -853,31 +853,31 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>23.51536768509878</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.380640496800413</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="V4" t="n">
-        <v>2.380640496800413</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="W4" t="n">
-        <v>2.380640496800413</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="X4" t="n">
-        <v>1.571243744292474</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1412437442924743</v>
+        <v>2.71959675632557</v>
       </c>
       <c r="Z4" t="n">
-        <v>-127.1193698632269</v>
+        <v>2447.637080693013</v>
       </c>
       <c r="AA4" t="n">
-        <v>17117</v>
+        <v>22507.20897417482</v>
       </c>
       <c r="AB4" t="n">
         <v>0.7556098551888433</v>
@@ -918,31 +918,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="H5" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="J5" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2825103265079365</v>
+        <v>-2.965448058096603</v>
       </c>
       <c r="L5" t="n">
-        <v>254.2592938571429</v>
+        <v>-2668.903252286943</v>
       </c>
       <c r="M5" t="n">
-        <v>59018.75357595053</v>
+        <v>44722.66743378186</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.028935952122414</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>5.642193924453547</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -954,37 +954,37 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>23.51536768509878</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.344092214023644</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>4.344092214023646</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.43</v>
+        <v>1.298101710429902</v>
       </c>
       <c r="Z5" t="n">
-        <v>1287</v>
+        <v>1168.291539386911</v>
       </c>
       <c r="AA5" t="n">
-        <v>18404</v>
+        <v>23675.50051356173</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.4745490016303576</v>
+        <v>0.7739155438874873</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.706365776845905</v>
+        <v>2.887018000621759</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.500022928895844</v>
+        <v>8.969681153655978</v>
       </c>
     </row>
     <row r="6">
@@ -1019,31 +1019,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="H6" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="I6" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="J6" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2845479727301585</v>
+        <v>-2.963410411874381</v>
       </c>
       <c r="L6" t="n">
-        <v>256.0931754571426</v>
+        <v>-2667.069370686943</v>
       </c>
       <c r="M6" t="n">
-        <v>59274.84675140767</v>
+        <v>42055.59806309492</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.595630627129773</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1055,37 +1055,37 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>18.49335896843407</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.43</v>
+        <v>0.1579583846000201</v>
       </c>
       <c r="Z6" t="n">
-        <v>1287</v>
+        <v>142.1625461400181</v>
       </c>
       <c r="AA6" t="n">
-        <v>19691</v>
+        <v>23817.66305970175</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.202001818890435</v>
+        <v>0.8007349034046952</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.541897649330435</v>
+        <v>2.903202096882143</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.341201080940142</v>
+        <v>9.280517530460417</v>
       </c>
     </row>
     <row r="7">
@@ -1120,31 +1120,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="H7" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="I7" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="J7" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2818744481587301</v>
+        <v>-2.96608393644581</v>
       </c>
       <c r="L7" t="n">
-        <v>253.6870033428571</v>
+        <v>-2669.475542801229</v>
       </c>
       <c r="M7" t="n">
-        <v>59528.53375475053</v>
+        <v>39386.12252029369</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.595630627129773</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1156,40 +1156,40 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>21.93992112303438</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.43</v>
+        <v>0.1579583846000201</v>
       </c>
       <c r="Z7" t="n">
-        <v>1287</v>
+        <v>142.1625461400181</v>
       </c>
       <c r="AA7" t="n">
-        <v>20978</v>
+        <v>23959.82560584177</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.832875307183505</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.110841579297768</v>
+        <v>2.922597168127977</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>11.45203547377319</v>
       </c>
     </row>
     <row r="8">
@@ -1221,31 +1221,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="H8" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="I8" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="J8" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2881838817142857</v>
+        <v>-2.959774502890254</v>
       </c>
       <c r="L8" t="n">
-        <v>259.3654935428571</v>
+        <v>-2663.797052601229</v>
       </c>
       <c r="M8" t="n">
-        <v>59787.89924829338</v>
+        <v>36722.32546769246</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.595630627129773</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1257,40 +1257,40 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>21.93992112303438</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.43</v>
+        <v>0.1579583846000201</v>
       </c>
       <c r="Z8" t="n">
-        <v>1287</v>
+        <v>142.1625461400181</v>
       </c>
       <c r="AA8" t="n">
-        <v>22265</v>
+        <v>24101.98815198179</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1.618082094440161</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.317294747030963</v>
+        <v>3.3964288500932</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>22.24862879855221</v>
       </c>
     </row>
     <row r="9">
@@ -1322,31 +1322,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="H9" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="I9" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="J9" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2731523094285713</v>
+        <v>-2.974806075175969</v>
       </c>
       <c r="L9" t="n">
-        <v>245.8370784857141</v>
+        <v>-2677.325467658372</v>
       </c>
       <c r="M9" t="n">
-        <v>60033.73632677909</v>
+        <v>34045.00000003409</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.595630627129773</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1358,40 +1358,40 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>21.93992112303438</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.43</v>
+        <v>0.1579583846000201</v>
       </c>
       <c r="Z9" t="n">
-        <v>1287</v>
+        <v>142.1625461400181</v>
       </c>
       <c r="AA9" t="n">
-        <v>23552</v>
+        <v>24244.1506981218</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>2.500456992048155</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5237479147641581</v>
+        <v>3.928896460718714</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>34.38128364066214</v>
       </c>
     </row>
     <row r="10">
@@ -1423,31 +1423,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="H10" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="I10" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="J10" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2665367162222221</v>
+        <v>0.2665367162221735</v>
       </c>
       <c r="L10" t="n">
-        <v>239.8830445999999</v>
+        <v>239.8830445999561</v>
       </c>
       <c r="M10" t="n">
-        <v>60273.61937137909</v>
+        <v>34284.88304463404</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.595630627129773</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>4.67795838460454</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1459,40 +1459,40 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>21.93992112303438</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>4.520000000004514</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.520000000004514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4.520000000004514</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>4.520000000004515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.43</v>
+        <v>0.1579583846000245</v>
       </c>
       <c r="Z10" t="n">
-        <v>1287</v>
+        <v>142.1625461400221</v>
       </c>
       <c r="AA10" t="n">
-        <v>24839</v>
+        <v>24386.31324426183</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>3.38283188965615</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>4.461364071344228</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>46.51393848277206</v>
       </c>
     </row>
     <row r="11">
@@ -1524,31 +1524,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="H11" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="I11" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="J11" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2693666726984127</v>
+        <v>0.2693666726983641</v>
       </c>
       <c r="L11" t="n">
-        <v>242.4300054285715</v>
+        <v>242.4300054285277</v>
       </c>
       <c r="M11" t="n">
-        <v>60516.04937680766</v>
+        <v>34527.31305006257</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.399360243987967e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1560,49 +1560,49 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.030121873965543e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.43</v>
+        <v>-1.975276732465301</v>
       </c>
       <c r="Z11" t="n">
-        <v>1287</v>
+        <v>-1777.749059218771</v>
       </c>
       <c r="AA11" t="n">
-        <v>26126</v>
+        <v>22608.56418504305</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>50.4861</v>
       </c>
     </row>
     <row r="12">
@@ -1625,31 +1625,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="H12" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="I12" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="J12" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2749035277142857</v>
+        <v>0.2749035277142371</v>
       </c>
       <c r="L12" t="n">
-        <v>247.4131749428572</v>
+        <v>247.4131749428134</v>
       </c>
       <c r="M12" t="n">
-        <v>60763.46255175052</v>
+        <v>34774.72622500538</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.399360243987967e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1661,49 +1661,49 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.030121873965543e-13</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.43</v>
+        <v>-1.975276732465301</v>
       </c>
       <c r="Z12" t="n">
-        <v>1287</v>
+        <v>-1777.749059218771</v>
       </c>
       <c r="AA12" t="n">
-        <v>27413</v>
+        <v>20830.81512582428</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>50.4861</v>
       </c>
     </row>
     <row r="13">
@@ -1726,31 +1726,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="H13" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="I13" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="J13" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2804525953968255</v>
+        <v>0.2804525953967769</v>
       </c>
       <c r="L13" t="n">
-        <v>252.407335857143</v>
+        <v>252.4073358570992</v>
       </c>
       <c r="M13" t="n">
-        <v>61015.86988760766</v>
+        <v>35027.13356086248</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.399360243987967e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1762,49 +1762,49 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.030121873965543e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.43</v>
+        <v>-1.975276732465301</v>
       </c>
       <c r="Z13" t="n">
-        <v>1287</v>
+        <v>-1777.749059218771</v>
       </c>
       <c r="AA13" t="n">
-        <v>28700</v>
+        <v>19053.06606660551</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>4.520000000004518</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>50.4861</v>
       </c>
     </row>
     <row r="14">
@@ -1827,31 +1827,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="H14" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="I14" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="J14" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2959227112380951</v>
+        <v>0.2959227112380465</v>
       </c>
       <c r="L14" t="n">
-        <v>266.3304401142856</v>
+        <v>266.3304401142418</v>
       </c>
       <c r="M14" t="n">
-        <v>61282.20032772195</v>
+        <v>35293.46400097672</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.399360243987967e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1863,40 +1863,40 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.030121873965543e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.43</v>
+        <v>-1.975276732465301</v>
       </c>
       <c r="Z14" t="n">
-        <v>1287</v>
+        <v>-1777.749059218771</v>
       </c>
       <c r="AA14" t="n">
-        <v>29987</v>
+        <v>17275.31700738674</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>2.864248099842994</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>4.148425577491461</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>41.55307930847223</v>
       </c>
     </row>
     <row r="15">
@@ -1928,31 +1928,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="H15" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="I15" t="n">
-        <v>1.43</v>
+        <v>1.430000000000052</v>
       </c>
       <c r="J15" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2860427873650795</v>
+        <v>0.2860427873650309</v>
       </c>
       <c r="L15" t="n">
-        <v>257.4385086285715</v>
+        <v>257.4385086285278</v>
       </c>
       <c r="M15" t="n">
-        <v>61539.63883635052</v>
+        <v>35550.90250960525</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.399360243987967e-14</v>
       </c>
       <c r="O15" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.020326352257628e-13</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1982,22 +1982,22 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="Z15" t="n">
-        <v>1287</v>
+        <v>1287.000000000044</v>
       </c>
       <c r="AA15" t="n">
-        <v>31274</v>
+        <v>18562.31700738678</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>2.248496199678499</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>3.776851154978405</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>32.46266388285834</v>
       </c>
     </row>
     <row r="16">
@@ -2029,31 +2029,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.43</v>
+        <v>1.429998192515285</v>
       </c>
       <c r="H16" t="n">
-        <v>1.43</v>
+        <v>1.429998192515285</v>
       </c>
       <c r="I16" t="n">
-        <v>1.43</v>
+        <v>1.429998192515285</v>
       </c>
       <c r="J16" t="n">
-        <v>1.43</v>
+        <v>1.429998192515284</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2792694773650792</v>
+        <v>0.2792712848497951</v>
       </c>
       <c r="L16" t="n">
-        <v>251.3425296285713</v>
+        <v>251.3441563648156</v>
       </c>
       <c r="M16" t="n">
-        <v>61790.98136597909</v>
+        <v>35802.24666597007</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.399360243987967e-14</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.020326352257628e-13</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.43</v>
+        <v>1.430000000000049</v>
       </c>
       <c r="Z16" t="n">
-        <v>1287</v>
+        <v>1287.000000000044</v>
       </c>
       <c r="AA16" t="n">
-        <v>32561</v>
+        <v>19849.31700738683</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1.632744299514009</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>23.5727458242335</v>
       </c>
     </row>
     <row r="17">
@@ -2130,31 +2130,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2761083176190475</v>
+        <v>1.706108317619047</v>
       </c>
       <c r="L17" t="n">
-        <v>248.4974858571428</v>
+        <v>1535.497485857143</v>
       </c>
       <c r="M17" t="n">
-        <v>62039.47885183623</v>
+        <v>37337.74415182721</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.43</v>
+        <v>1.429998192515284</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2184,22 +2184,22 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.43</v>
+        <v>1.429998192515284</v>
       </c>
       <c r="Z17" t="n">
-        <v>1287</v>
+        <v>1286.998373263756</v>
       </c>
       <c r="AA17" t="n">
-        <v>33848</v>
+        <v>21136.31538065058</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1.632744299514009</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>3.40527673246535</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>23.5727458242335</v>
       </c>
     </row>
     <row r="18">
@@ -2231,34 +2231,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2757748343492061</v>
+        <v>1.705774834349206</v>
       </c>
       <c r="L18" t="n">
-        <v>248.1973509142855</v>
+        <v>1535.197350914285</v>
       </c>
       <c r="M18" t="n">
-        <v>62287.67620275052</v>
+        <v>38872.94150274149</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -2285,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>35135</v>
+        <v>21136.31538065058</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>2.270184488310233</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2332,34 +2332,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2683337176507936</v>
+        <v>1.698333717650794</v>
       </c>
       <c r="L19" t="n">
-        <v>241.5003458857142</v>
+        <v>1528.500345885714</v>
       </c>
       <c r="M19" t="n">
-        <v>62529.17654863623</v>
+        <v>40401.44184862721</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2386,19 +2386,19 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>36422</v>
+        <v>21136.31538065058</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1.135092244155117</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2433,34 +2433,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2610150232063488</v>
+        <v>1.691015023206349</v>
       </c>
       <c r="L20" t="n">
-        <v>234.913520885714</v>
+        <v>1521.913520885714</v>
       </c>
       <c r="M20" t="n">
-        <v>62764.09006952195</v>
+        <v>41923.35536951292</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>37709</v>
+        <v>21136.31538065058</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -2534,34 +2534,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="H21" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="I21" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="J21" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2571900625396826</v>
+        <v>1.506922751690476</v>
       </c>
       <c r="L21" t="n">
-        <v>231.4710562857143</v>
+        <v>1356.230476521428</v>
       </c>
       <c r="M21" t="n">
-        <v>62995.56112580766</v>
+        <v>43279.58584603435</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2588,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>38996</v>
+        <v>21136.31538065058</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -2635,34 +2635,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="H22" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="I22" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="J22" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2709618813015873</v>
+        <v>1.520694570452381</v>
       </c>
       <c r="L22" t="n">
-        <v>243.8656931714285</v>
+        <v>1368.625113407143</v>
       </c>
       <c r="M22" t="n">
-        <v>63239.42681897909</v>
+        <v>44648.21095944149</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="Z22" t="n">
-        <v>1287</v>
+        <v>162.2405797642859</v>
       </c>
       <c r="AA22" t="n">
-        <v>40283</v>
+        <v>21298.55596041487</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -2736,34 +2736,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="H23" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="I23" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="J23" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2666349852698413</v>
+        <v>1.516367674420635</v>
       </c>
       <c r="L23" t="n">
-        <v>239.9714867428572</v>
+        <v>1364.730906978571</v>
       </c>
       <c r="M23" t="n">
-        <v>63479.39830572194</v>
+        <v>46012.94186642006</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2790,13 +2790,13 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="Z23" t="n">
-        <v>1287</v>
+        <v>162.2405797642859</v>
       </c>
       <c r="AA23" t="n">
-        <v>41570</v>
+        <v>21460.79654017916</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -2837,34 +2837,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="H24" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="I24" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492028</v>
       </c>
       <c r="J24" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2765434078095237</v>
+        <v>1.526276096960317</v>
       </c>
       <c r="L24" t="n">
-        <v>248.8890670285713</v>
+        <v>1373.648487264285</v>
       </c>
       <c r="M24" t="n">
-        <v>63728.28737275051</v>
+        <v>47386.59035368435</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2891,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="Z24" t="n">
-        <v>1287</v>
+        <v>162.2405797642859</v>
       </c>
       <c r="AA24" t="n">
-        <v>42857</v>
+        <v>21623.03711994344</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -2938,34 +2938,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2723091419999999</v>
+        <v>1.702309142</v>
       </c>
       <c r="L25" t="n">
-        <v>245.0782277999999</v>
+        <v>1532.0782278</v>
       </c>
       <c r="M25" t="n">
-        <v>63973.36560055051</v>
+        <v>48918.66858148434</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.43</v>
+        <v>0.1802673108492066</v>
       </c>
       <c r="Z25" t="n">
-        <v>1287</v>
+        <v>162.2405797642859</v>
       </c>
       <c r="AA25" t="n">
-        <v>44144</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -3039,34 +3039,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2662401205714284</v>
+        <v>1.696240120571428</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6161085142856</v>
+        <v>1526.616108514286</v>
       </c>
       <c r="M26" t="n">
-        <v>64212.9817090648</v>
+        <v>50445.28468999863</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -3093,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>45431</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3140,34 +3140,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2723078563174604</v>
+        <v>1.70230785631746</v>
       </c>
       <c r="L27" t="n">
-        <v>245.0770706857143</v>
+        <v>1532.077070685714</v>
       </c>
       <c r="M27" t="n">
-        <v>64458.05877975051</v>
+        <v>51977.36176068435</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>46718</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3241,34 +3241,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2890461263174604</v>
+        <v>1.71904612631746</v>
       </c>
       <c r="L28" t="n">
-        <v>260.1415136857144</v>
+        <v>1547.141513685714</v>
       </c>
       <c r="M28" t="n">
-        <v>64718.20029343622</v>
+        <v>53524.50327437006</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3295,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>48005</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3342,34 +3342,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2727724689523809</v>
+        <v>1.702772468952381</v>
       </c>
       <c r="L29" t="n">
-        <v>245.4952220571429</v>
+        <v>1532.495222057143</v>
       </c>
       <c r="M29" t="n">
-        <v>64963.69551549337</v>
+        <v>55056.99849642721</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>49292</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -3443,34 +3443,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2685464333015875</v>
+        <v>1.698546433301587</v>
       </c>
       <c r="L30" t="n">
-        <v>241.6917899714287</v>
+        <v>1528.691789971429</v>
       </c>
       <c r="M30" t="n">
-        <v>65205.3873054648</v>
+        <v>56585.69028639864</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -3497,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>50579</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
@@ -3544,34 +3544,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2659751286984129</v>
+        <v>1.695975128698413</v>
       </c>
       <c r="L31" t="n">
-        <v>239.3776158285716</v>
+        <v>1526.377615828572</v>
       </c>
       <c r="M31" t="n">
-        <v>65444.76492129338</v>
+        <v>58112.06790222721</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3598,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>51866</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -3645,34 +3645,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.282328205047619</v>
+        <v>1.712328205047619</v>
       </c>
       <c r="L32" t="n">
-        <v>254.0953845428571</v>
+        <v>1541.095384542857</v>
       </c>
       <c r="M32" t="n">
-        <v>65698.86030583624</v>
+        <v>59653.16328677007</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>53153</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -3746,34 +3746,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.280317957079365</v>
+        <v>1.710317957079365</v>
       </c>
       <c r="L33" t="n">
-        <v>252.2861613714285</v>
+        <v>1539.286161371429</v>
       </c>
       <c r="M33" t="n">
-        <v>65951.14646720767</v>
+        <v>61192.44944814149</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>54440</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -3847,34 +3847,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2743616933968254</v>
+        <v>1.704361693396825</v>
       </c>
       <c r="L34" t="n">
-        <v>246.9255240571428</v>
+        <v>1533.925524057143</v>
       </c>
       <c r="M34" t="n">
-        <v>66198.07199126481</v>
+        <v>62726.37497219864</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3901,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>55727</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -3948,34 +3948,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2679136429523807</v>
+        <v>1.697913642952381</v>
       </c>
       <c r="L35" t="n">
-        <v>241.1222786571427</v>
+        <v>1528.122278657143</v>
       </c>
       <c r="M35" t="n">
-        <v>66439.19426992195</v>
+        <v>64254.49725085578</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3990,25 +3990,25 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.7033333333333336</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.7033333333333336</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.7033333333333336</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.7033333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.7266666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>653.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>56381</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -4049,34 +4049,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2733629304444445</v>
+        <v>1.703362930444444</v>
       </c>
       <c r="L36" t="n">
-        <v>246.0266374</v>
+        <v>1533.0266374</v>
       </c>
       <c r="M36" t="n">
-        <v>66685.22090732196</v>
+        <v>65787.52388825579</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4091,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.7033333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.7266666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>653.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>57035</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -4150,34 +4150,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2661281044444446</v>
+        <v>1.696128104444445</v>
       </c>
       <c r="L37" t="n">
-        <v>239.5152940000001</v>
+        <v>1526.515294</v>
       </c>
       <c r="M37" t="n">
-        <v>66924.73620132195</v>
+        <v>67314.03918225579</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -4192,25 +4192,25 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.7033333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.7266666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>653.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>57689</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -4251,34 +4251,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2570473661587303</v>
+        <v>1.68704736615873</v>
       </c>
       <c r="L38" t="n">
-        <v>231.3426295428572</v>
+        <v>1518.342629542857</v>
       </c>
       <c r="M38" t="n">
-        <v>67156.0788308648</v>
+        <v>68832.38181179864</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -4293,31 +4293,31 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.7033333333333331</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.7033333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.7266666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>653.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>58343</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.2344444444444445</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -4352,34 +4352,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2652456189523811</v>
+        <v>1.695245618952381</v>
       </c>
       <c r="L39" t="n">
-        <v>238.721057057143</v>
+        <v>1525.721057057143</v>
       </c>
       <c r="M39" t="n">
-        <v>67394.79988792195</v>
+        <v>70358.10286885579</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -4394,31 +4394,31 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>-2781</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>55562</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.4688888888888889</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -4453,34 +4453,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2598122515238093</v>
+        <v>1.689812251523809</v>
       </c>
       <c r="L40" t="n">
-        <v>233.8310263714284</v>
+        <v>1520.831026371428</v>
       </c>
       <c r="M40" t="n">
-        <v>67628.63091429338</v>
+        <v>70882</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -4495,31 +4495,31 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>-2781</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>52781</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.7033333333333335</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -4554,34 +4554,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2663873940952382</v>
+        <v>1.696387394095238</v>
       </c>
       <c r="L41" t="n">
-        <v>239.7486546857143</v>
+        <v>1526.748654685714</v>
       </c>
       <c r="M41" t="n">
-        <v>67868.37956897909</v>
+        <v>70882</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -4596,31 +4596,31 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>-2781</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>50000</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB41" t="n">
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.7033333333333335</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -4655,34 +4655,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="H42" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="I42" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="J42" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2671631172380955</v>
+        <v>-10.2292366904519</v>
       </c>
       <c r="L42" t="n">
-        <v>240.446805514286</v>
+        <v>-9206.313021406711</v>
       </c>
       <c r="M42" t="n">
-        <v>68108.82637449336</v>
+        <v>61675.68697859328</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -4697,31 +4697,31 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>-2781</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>47219</v>
+        <v>21785.27769970773</v>
       </c>
       <c r="AB42" t="n">
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.975555555555555</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -4756,85 +4756,85 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="H43" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="I43" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="J43" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2733891564444444</v>
+        <v>-10.22301065124555</v>
       </c>
       <c r="L43" t="n">
-        <v>246.0502408</v>
+        <v>-9200.709586120998</v>
       </c>
       <c r="M43" t="n">
-        <v>68354.87661529337</v>
+        <v>52474.97739247228</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4.10352294962014</v>
       </c>
       <c r="O43" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>52.28914118553463</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>4.52</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="V43" t="n">
-        <v>4.52</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="W43" t="n">
-        <v>4.52</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="X43" t="n">
-        <v>4.52</v>
+        <v>1.37000000000137</v>
       </c>
       <c r="Y43" t="n">
-        <v>-3.09</v>
+        <v>10.55639980768863</v>
       </c>
       <c r="Z43" t="n">
-        <v>-2781</v>
+        <v>9500.759826919764</v>
       </c>
       <c r="AA43" t="n">
-        <v>44438</v>
+        <v>31286.03752662749</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.371746031746031</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>3.247777777777777</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>17.47947380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4857,34 +4857,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="H44" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="I44" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2610832760317461</v>
+        <v>-10.23531653165825</v>
       </c>
       <c r="L44" t="n">
-        <v>234.9749484285715</v>
+        <v>-9211.784878492428</v>
       </c>
       <c r="M44" t="n">
-        <v>68589.85156372194</v>
+        <v>43263.19251397985</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4.10352294962014</v>
       </c>
       <c r="O44" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4893,49 +4893,49 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.28914118553463</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>4.519999999999985</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="V44" t="n">
-        <v>4.519999999999985</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="W44" t="n">
-        <v>4.519999999999985</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="X44" t="n">
-        <v>4.519999999999984</v>
+        <v>1.370000000001366</v>
       </c>
       <c r="Y44" t="n">
-        <v>-3.089999999999984</v>
+        <v>10.55639980768863</v>
       </c>
       <c r="Z44" t="n">
-        <v>-2780.999999999985</v>
+        <v>9500.759826919768</v>
       </c>
       <c r="AA44" t="n">
-        <v>41657.00000000001</v>
+        <v>40786.79735354726</v>
       </c>
       <c r="AB44" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>44.3439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4958,34 +4958,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="H45" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="I45" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="J45" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2539636810476189</v>
+        <v>-10.24243612664238</v>
       </c>
       <c r="L45" t="n">
-        <v>228.567312942857</v>
+        <v>-9218.192513978142</v>
       </c>
       <c r="M45" t="n">
-        <v>68818.4188766648</v>
+        <v>34045.00000000171</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>4.10352294962014</v>
       </c>
       <c r="O45" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4994,49 +4994,49 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>52.28914118553463</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>4.519999999999984</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="V45" t="n">
-        <v>4.519999999999984</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="W45" t="n">
-        <v>4.519999999999984</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="X45" t="n">
-        <v>4.519999999999984</v>
+        <v>1.370000000001366</v>
       </c>
       <c r="Y45" t="n">
-        <v>-3.089999999999984</v>
+        <v>10.55639980768863</v>
       </c>
       <c r="Z45" t="n">
-        <v>-2780.999999999985</v>
+        <v>9500.759826919768</v>
       </c>
       <c r="AA45" t="n">
-        <v>38876.00000000003</v>
+        <v>50287.55718046703</v>
       </c>
       <c r="AB45" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>44.3439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5059,34 +5059,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.255941305333333</v>
+        <v>1.685941305333333</v>
       </c>
       <c r="L46" t="n">
-        <v>230.3471747999997</v>
+        <v>1517.3471748</v>
       </c>
       <c r="M46" t="n">
-        <v>69048.7660514648</v>
+        <v>35562.34717480171</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4.10352294962014</v>
       </c>
       <c r="O46" t="n">
-        <v>1.43</v>
+        <v>11.92639980769</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -5095,49 +5095,49 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>52.28914118553463</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>4.52</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="V46" t="n">
-        <v>4.52</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="W46" t="n">
-        <v>4.52</v>
+        <v>1.370000000001369</v>
       </c>
       <c r="X46" t="n">
-        <v>4.52</v>
+        <v>1.370000000001366</v>
       </c>
       <c r="Y46" t="n">
-        <v>-3.09</v>
+        <v>10.55639980768863</v>
       </c>
       <c r="Z46" t="n">
-        <v>-2781</v>
+        <v>9500.759826919768</v>
       </c>
       <c r="AA46" t="n">
-        <v>36095.00000000003</v>
+        <v>58343</v>
       </c>
       <c r="AB46" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>4.52</v>
+        <v>0.4566666666671235</v>
       </c>
       <c r="AD46" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>44.3439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5160,34 +5160,34 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2529611526666666</v>
+        <v>1.682961152666667</v>
       </c>
       <c r="L47" t="n">
-        <v>227.6650374</v>
+        <v>1514.6650374</v>
       </c>
       <c r="M47" t="n">
-        <v>69276.4310888648</v>
+        <v>37077.01221220171</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -5202,43 +5202,43 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="V47" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="W47" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="X47" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y47" t="n">
-        <v>-3.09</v>
+        <v>-4.52000000000452</v>
       </c>
       <c r="Z47" t="n">
-        <v>-2781</v>
+        <v>-4068.000000004068</v>
       </c>
       <c r="AA47" t="n">
-        <v>33314.00000000003</v>
+        <v>54274.99999999593</v>
       </c>
       <c r="AB47" t="n">
-        <v>3.479999999999991</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>4.519999999999994</v>
+        <v>0.9133333333342456</v>
       </c>
       <c r="AD47" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>47.42369999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5261,34 +5261,34 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2714379075555557</v>
+        <v>1.701437907555556</v>
       </c>
       <c r="L48" t="n">
-        <v>244.2941168000002</v>
+        <v>1531.2941168</v>
       </c>
       <c r="M48" t="n">
-        <v>69520.7252056648</v>
+        <v>38608.30632900172</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -5303,43 +5303,43 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V48" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W48" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X48" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y48" t="n">
-        <v>-3.09</v>
+        <v>-4.52000000000452</v>
       </c>
       <c r="Z48" t="n">
-        <v>-2781</v>
+        <v>-4068.000000004068</v>
       </c>
       <c r="AA48" t="n">
-        <v>30533.00000000003</v>
+        <v>50206.99999999187</v>
       </c>
       <c r="AB48" t="n">
-        <v>3.479999999999983</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>4.519999999999989</v>
+        <v>1.370000000001368</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>47.42369999999976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5362,34 +5362,34 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2595632810476192</v>
+        <v>1.689563281047619</v>
       </c>
       <c r="L49" t="n">
-        <v>233.6069529428572</v>
+        <v>1520.606952942857</v>
       </c>
       <c r="M49" t="n">
-        <v>69754.33215860766</v>
+        <v>40128.91328194457</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -5404,43 +5404,43 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V49" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W49" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X49" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y49" t="n">
-        <v>-3.09</v>
+        <v>-4.52000000000452</v>
       </c>
       <c r="Z49" t="n">
-        <v>-2781</v>
+        <v>-4068.000000004068</v>
       </c>
       <c r="AA49" t="n">
-        <v>27752.00000000003</v>
+        <v>46138.9999999878</v>
       </c>
       <c r="AB49" t="n">
-        <v>3.479999999999983</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>4.519999999999989</v>
+        <v>1.370000000001366</v>
       </c>
       <c r="AD49" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
         <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>47.42369999999976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5463,34 +5463,34 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>4.513749999999987</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>4.513749999999987</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>4.513749999999987</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.513749999999984</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.810392931682523</v>
+        <v>1.70335706831746</v>
       </c>
       <c r="L50" t="n">
-        <v>-2529.353638514271</v>
+        <v>1533.021361485714</v>
       </c>
       <c r="M50" t="n">
-        <v>67224.9785200934</v>
+        <v>41661.93464343029</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -5505,43 +5505,43 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V50" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W50" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X50" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y50" t="n">
-        <v>-3.09</v>
+        <v>-4.52000000000452</v>
       </c>
       <c r="Z50" t="n">
-        <v>-2781</v>
+        <v>-4068.000000004068</v>
       </c>
       <c r="AA50" t="n">
-        <v>24971.00000000003</v>
+        <v>42070.99999998373</v>
       </c>
       <c r="AB50" t="n">
-        <v>3.479999999999991</v>
+        <v>4.005608543268734e-12</v>
       </c>
       <c r="AC50" t="n">
-        <v>4.519999999999994</v>
+        <v>2.420000000002417</v>
       </c>
       <c r="AD50" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>47.42369999999988</v>
+        <v>5.458643042339467e-11</v>
       </c>
     </row>
     <row r="51">
@@ -5564,85 +5564,85 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="H51" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="I51" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="J51" t="n">
-        <v>4.513749999999984</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.788781701968238</v>
+        <v>0.3281526929546019</v>
       </c>
       <c r="L51" t="n">
-        <v>-2509.903531771415</v>
+        <v>295.3374236591417</v>
       </c>
       <c r="M51" t="n">
-        <v>64715.07498832198</v>
+        <v>41957.27206708943</v>
       </c>
       <c r="N51" t="n">
-        <v>1.48995949074073</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>4.513749999999984</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>4.52000000000452</v>
+      </c>
+      <c r="V51" t="n">
+        <v>4.52000000000452</v>
+      </c>
+      <c r="W51" t="n">
+        <v>4.52000000000452</v>
+      </c>
+      <c r="X51" t="n">
+        <v>4.52000000000452</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-4.52000000000452</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-4068.000000004068</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>38002.99999997966</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.740000000005748</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3.470000000003469</v>
+      </c>
+      <c r="AD51" t="n">
         <v>1</v>
       </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>21.44796686921281</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="V51" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="W51" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="X51" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>-0.006250000000015632</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>-5.625000000014069</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>24965.37500000001</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>50.0946</v>
+        <v>25.04730000008275</v>
       </c>
     </row>
     <row r="52">
@@ -5665,34 +5665,34 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="H52" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="I52" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="J52" t="n">
-        <v>4.513749999999984</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="K52" t="n">
-        <v>-2.818569132603159</v>
+        <v>0.2983652623196815</v>
       </c>
       <c r="L52" t="n">
-        <v>-2536.712219342843</v>
+        <v>268.5287360877134</v>
       </c>
       <c r="M52" t="n">
-        <v>62178.36276897915</v>
+        <v>42225.80080317714</v>
       </c>
       <c r="N52" t="n">
-        <v>1.48995949074073</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>4.513749999999984</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -5701,37 +5701,37 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>21.44796686921281</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>4.52</v>
+        <v>4.520000000004527</v>
       </c>
       <c r="V52" t="n">
-        <v>4.52</v>
+        <v>4.520000000004527</v>
       </c>
       <c r="W52" t="n">
-        <v>4.52</v>
+        <v>4.520000000004527</v>
       </c>
       <c r="X52" t="n">
-        <v>4.52</v>
+        <v>4.520000000004528</v>
       </c>
       <c r="Y52" t="n">
-        <v>-0.006250000000015632</v>
+        <v>-3.123184394927383</v>
       </c>
       <c r="Z52" t="n">
-        <v>-5.625000000014069</v>
+        <v>-2810.865955434645</v>
       </c>
       <c r="AA52" t="n">
-        <v>24959.75</v>
+        <v>35192.13404454502</v>
       </c>
       <c r="AB52" t="n">
         <v>3.48</v>
       </c>
       <c r="AC52" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="AD52" t="n">
         <v>1.5</v>
@@ -5766,34 +5766,34 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="H53" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="I53" t="n">
-        <v>4.513749999999987</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="J53" t="n">
-        <v>4.513749999999984</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.830121582761889</v>
+        <v>0.2868128121609512</v>
       </c>
       <c r="L53" t="n">
-        <v>-2547.1094244857</v>
+        <v>258.1315309448561</v>
       </c>
       <c r="M53" t="n">
-        <v>59631.25334449345</v>
+        <v>42483.93233412199</v>
       </c>
       <c r="N53" t="n">
-        <v>1.48995949074073</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>4.513749999999984</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -5802,37 +5802,37 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>21.44796686921281</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V53" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W53" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X53" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y53" t="n">
-        <v>-0.006250000000015632</v>
+        <v>-3.123184394927375</v>
       </c>
       <c r="Z53" t="n">
-        <v>-5.625000000014069</v>
+        <v>-2810.865955434638</v>
       </c>
       <c r="AA53" t="n">
-        <v>24954.12499999999</v>
+        <v>32381.26808911038</v>
       </c>
       <c r="AB53" t="n">
         <v>3.48</v>
       </c>
       <c r="AC53" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="AD53" t="n">
         <v>1.5</v>
@@ -5867,34 +5867,34 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="H54" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="I54" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="J54" t="n">
-        <v>4.98</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="K54" t="n">
-        <v>-3.284750574920635</v>
+        <v>0.2984338200022212</v>
       </c>
       <c r="L54" t="n">
-        <v>-2956.275517428572</v>
+        <v>268.5904380019991</v>
       </c>
       <c r="M54" t="n">
-        <v>56674.97782706487</v>
+        <v>42752.52277212399</v>
       </c>
       <c r="N54" t="n">
-        <v>1.48995949074073</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>4.513749999999984</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -5903,37 +5903,37 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>21.44796686921281</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V54" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W54" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X54" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y54" t="n">
-        <v>-0.006250000000015632</v>
+        <v>-3.123184394927375</v>
       </c>
       <c r="Z54" t="n">
-        <v>-5.625000000014069</v>
+        <v>-2810.865955434638</v>
       </c>
       <c r="AA54" t="n">
-        <v>24948.49999999997</v>
+        <v>29570.40213367574</v>
       </c>
       <c r="AB54" t="n">
         <v>3.48</v>
       </c>
       <c r="AC54" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="AD54" t="n">
         <v>1.5</v>
@@ -5968,34 +5968,34 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="H55" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="I55" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="J55" t="n">
-        <v>4.98</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.279900436190477</v>
+        <v>0.3032839587323799</v>
       </c>
       <c r="L55" t="n">
-        <v>-2951.910392571429</v>
+        <v>272.9555628591419</v>
       </c>
       <c r="M55" t="n">
-        <v>53723.06743449345</v>
+        <v>43025.47833498313</v>
       </c>
       <c r="N55" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>4.98</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -6004,37 +6004,37 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>25.843125</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V55" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W55" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X55" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.4600000000000009</v>
+        <v>-3.123184394927375</v>
       </c>
       <c r="Z55" t="n">
-        <v>414.0000000000008</v>
+        <v>-2810.865955434638</v>
       </c>
       <c r="AA55" t="n">
-        <v>25362.49999999997</v>
+        <v>26759.53617824111</v>
       </c>
       <c r="AB55" t="n">
         <v>3.48</v>
       </c>
       <c r="AC55" t="n">
-        <v>4.52</v>
+        <v>4.520000000004522</v>
       </c>
       <c r="AD55" t="n">
         <v>1.5</v>
@@ -6069,34 +6069,34 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="H56" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="I56" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="J56" t="n">
-        <v>4.98</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="K56" t="n">
-        <v>-3.309032179015873</v>
+        <v>0.2741522159069829</v>
       </c>
       <c r="L56" t="n">
-        <v>-2978.128961114286</v>
+        <v>246.7369943162846</v>
       </c>
       <c r="M56" t="n">
-        <v>50744.93847337916</v>
+        <v>43272.21532929942</v>
       </c>
       <c r="N56" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>4.98</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -6105,37 +6105,37 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>25.843125</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="V56" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="W56" t="n">
-        <v>4.52</v>
+        <v>4.520000000004519</v>
       </c>
       <c r="X56" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.4600000000000009</v>
+        <v>-3.123184394927375</v>
       </c>
       <c r="Z56" t="n">
-        <v>414.0000000000008</v>
+        <v>-2810.865955434638</v>
       </c>
       <c r="AA56" t="n">
-        <v>25776.49999999997</v>
+        <v>23948.67022280647</v>
       </c>
       <c r="AB56" t="n">
         <v>3.48</v>
       </c>
       <c r="AC56" t="n">
-        <v>4.52</v>
+        <v>4.520000000004522</v>
       </c>
       <c r="AD56" t="n">
         <v>1.5</v>
@@ -6170,34 +6170,34 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="H57" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="I57" t="n">
-        <v>4.98</v>
+        <v>1.396815605077143</v>
       </c>
       <c r="J57" t="n">
-        <v>4.98</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.316494770349207</v>
+        <v>0.2666896245736496</v>
       </c>
       <c r="L57" t="n">
-        <v>-2984.845293314286</v>
+        <v>240.0206621162847</v>
       </c>
       <c r="M57" t="n">
-        <v>47760.09318006488</v>
+        <v>43512.23599141571</v>
       </c>
       <c r="N57" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>4.98</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -6206,37 +6206,37 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>25.843125</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737004</v>
       </c>
       <c r="V57" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737004</v>
       </c>
       <c r="W57" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737004</v>
       </c>
       <c r="X57" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737019</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.4600000000000009</v>
+        <v>0.8523882962034419</v>
       </c>
       <c r="Z57" t="n">
-        <v>414.0000000000008</v>
+        <v>767.1494665830977</v>
       </c>
       <c r="AA57" t="n">
-        <v>26190.49999999997</v>
+        <v>24715.81968938957</v>
       </c>
       <c r="AB57" t="n">
         <v>3.48</v>
       </c>
       <c r="AC57" t="n">
-        <v>4.52</v>
+        <v>4.520000000004522</v>
       </c>
       <c r="AD57" t="n">
         <v>1.5</v>
@@ -6271,34 +6271,34 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>4.98</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>4.98</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>4.98</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>4.98</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>-3.30432022168254</v>
+        <v>1.67567977831746</v>
       </c>
       <c r="L58" t="n">
-        <v>-2973.888199514286</v>
+        <v>1508.111800485714</v>
       </c>
       <c r="M58" t="n">
-        <v>44786.20498055059</v>
+        <v>45020.34779190142</v>
       </c>
       <c r="N58" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>4.98</v>
+        <v>1.396815605077144</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -6307,37 +6307,37 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>25.843125</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737024</v>
       </c>
       <c r="V58" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737024</v>
       </c>
       <c r="W58" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737024</v>
       </c>
       <c r="X58" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737019</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.4600000000000009</v>
+        <v>0.8523882962034419</v>
       </c>
       <c r="Z58" t="n">
-        <v>414.0000000000008</v>
+        <v>767.1494665830977</v>
       </c>
       <c r="AA58" t="n">
-        <v>26604.49999999997</v>
+        <v>25482.96915597266</v>
       </c>
       <c r="AB58" t="n">
         <v>3.48</v>
       </c>
       <c r="AC58" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="AD58" t="n">
         <v>1.5</v>
@@ -6372,34 +6372,34 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2677312223809523</v>
+        <v>1.697731222380952</v>
       </c>
       <c r="L59" t="n">
-        <v>240.958100142857</v>
+        <v>1527.958100142857</v>
       </c>
       <c r="M59" t="n">
-        <v>45027.16308069345</v>
+        <v>46548.30589204428</v>
       </c>
       <c r="N59" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>4.98</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -6408,37 +6408,37 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>25.80285</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737024</v>
       </c>
       <c r="V59" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737024</v>
       </c>
       <c r="W59" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737024</v>
       </c>
       <c r="X59" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737019</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.4600000000000009</v>
+        <v>-0.5444273088737019</v>
       </c>
       <c r="Z59" t="n">
-        <v>414.0000000000008</v>
+        <v>-489.9845779863318</v>
       </c>
       <c r="AA59" t="n">
-        <v>27018.49999999997</v>
+        <v>24992.98457798633</v>
       </c>
       <c r="AB59" t="n">
         <v>3.48</v>
       </c>
       <c r="AC59" t="n">
-        <v>4.52</v>
+        <v>4.52000000000452</v>
       </c>
       <c r="AD59" t="n">
         <v>1.5</v>
@@ -6473,85 +6473,85 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2770712589841269</v>
+        <v>1.707071258984127</v>
       </c>
       <c r="L60" t="n">
-        <v>249.3641330857142</v>
+        <v>1536.364133085714</v>
       </c>
       <c r="M60" t="n">
-        <v>45276.52721377916</v>
+        <v>48084.67002512999</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.5444273088737024</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.5444273088737024</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.5444273088737024</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.5444273088737019</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.5444273088737019</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-489.9845779863318</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>24503</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.283969370620943</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>3.194809102960914</v>
+      </c>
+      <c r="AD60" t="n">
         <v>1</v>
       </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>4.519999999999996</v>
-      </c>
-      <c r="V60" t="n">
-        <v>4.519999999999996</v>
-      </c>
-      <c r="W60" t="n">
-        <v>4.519999999999996</v>
-      </c>
-      <c r="X60" t="n">
-        <v>4.519999999999996</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>-3.089999999999996</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>-2780.999999999997</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>24237.49999999997</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AE60" t="n">
         <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>50.16419999999999</v>
+        <v>18.5084184775009</v>
       </c>
     </row>
     <row r="61">
@@ -6574,34 +6574,34 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2597228153015874</v>
+        <v>1.689722815301587</v>
       </c>
       <c r="L61" t="n">
-        <v>233.7505337714286</v>
+        <v>1520.750533771429</v>
       </c>
       <c r="M61" t="n">
-        <v>45510.27774755059</v>
+        <v>49605.42055890142</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -6628,31 +6628,31 @@
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>25524.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB61" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>4.52</v>
+        <v>1.869618205917308</v>
       </c>
       <c r="AD61" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
         <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>50.16419999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6675,34 +6675,34 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2688021268253968</v>
+        <v>1.698802126825397</v>
       </c>
       <c r="L62" t="n">
-        <v>241.9219141428572</v>
+        <v>1528.921914142857</v>
       </c>
       <c r="M62" t="n">
-        <v>45752.19966169345</v>
+        <v>51134.34247304428</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -6729,31 +6729,31 @@
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>26811.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB62" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>4.52</v>
+        <v>0.5444273088737019</v>
       </c>
       <c r="AD62" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
         <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>50.16419999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6776,34 +6776,34 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2543557897460316</v>
+        <v>1.684355789746032</v>
       </c>
       <c r="L63" t="n">
-        <v>228.9202107714284</v>
+        <v>1515.920210771428</v>
       </c>
       <c r="M63" t="n">
-        <v>45981.11987246488</v>
+        <v>52650.26268381571</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -6830,31 +6830,31 @@
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>28098.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB63" t="n">
-        <v>3.479999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>4.519999999999999</v>
+        <v>0.5444273088737019</v>
       </c>
       <c r="AD63" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>46.32749999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -6877,34 +6877,34 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2674922939999997</v>
+        <v>1.697492294</v>
       </c>
       <c r="L64" t="n">
-        <v>240.7430645999998</v>
+        <v>1527.7430646</v>
       </c>
       <c r="M64" t="n">
-        <v>46221.86293706488</v>
+        <v>54178.00574841571</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -6931,22 +6931,22 @@
         <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>29385.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.9832380952380931</v>
+        <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>3.013333333333332</v>
+        <v>0.3629515392491346</v>
       </c>
       <c r="AD64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="AG64" t="n">
-        <v>13.08935714285711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -6978,34 +6978,34 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2672195534920634</v>
+        <v>1.697219553492063</v>
       </c>
       <c r="L65" t="n">
-        <v>240.497598142857</v>
+        <v>1527.497598142857</v>
       </c>
       <c r="M65" t="n">
-        <v>46462.36053520774</v>
+        <v>55705.50334655857</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -7032,19 +7032,19 @@
         <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>30672.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB65" t="n">
         <v>0</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.506666666666665</v>
+        <v>0.1814757696245673</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -7079,34 +7079,34 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2705818052063493</v>
+        <v>1.700581805206349</v>
       </c>
       <c r="L66" t="n">
-        <v>243.5236246857144</v>
+        <v>1530.523624685714</v>
       </c>
       <c r="M66" t="n">
-        <v>46705.88415989345</v>
+        <v>57236.02697124428</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -7133,13 +7133,13 @@
         <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>31959.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB66" t="n">
         <v>0</v>
@@ -7180,34 +7180,34 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2706293347619046</v>
+        <v>1.700629334761905</v>
       </c>
       <c r="L67" t="n">
-        <v>243.5664012857142</v>
+        <v>1530.566401285714</v>
       </c>
       <c r="M67" t="n">
-        <v>46949.45056117917</v>
+        <v>58766.59337253</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>33246.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB67" t="n">
         <v>0</v>
@@ -7281,34 +7281,34 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2682201074285713</v>
+        <v>1.698220107428571</v>
       </c>
       <c r="L68" t="n">
-        <v>241.3980966857141</v>
+        <v>1528.398096685714</v>
       </c>
       <c r="M68" t="n">
-        <v>47190.84865786488</v>
+        <v>60294.99146921571</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>34533.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB68" t="n">
         <v>0</v>
@@ -7382,34 +7382,34 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2688956257142856</v>
+        <v>1.698895625714286</v>
       </c>
       <c r="L69" t="n">
-        <v>242.006063142857</v>
+        <v>1529.006063142857</v>
       </c>
       <c r="M69" t="n">
-        <v>47432.85472100774</v>
+        <v>61823.99753235857</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -7436,13 +7436,13 @@
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>35820.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB69" t="n">
         <v>0</v>
@@ -7483,34 +7483,34 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2682402668253969</v>
+        <v>1.698240266825397</v>
       </c>
       <c r="L70" t="n">
-        <v>241.4162401428572</v>
+        <v>1528.416240142857</v>
       </c>
       <c r="M70" t="n">
-        <v>47674.27096115059</v>
+        <v>63352.41377250142</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -7537,13 +7537,13 @@
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>37107.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
@@ -7584,34 +7584,34 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2668572509206351</v>
+        <v>1.696857250920635</v>
       </c>
       <c r="L71" t="n">
-        <v>240.1715258285716</v>
+        <v>1527.171525828571</v>
       </c>
       <c r="M71" t="n">
-        <v>47914.44248697916</v>
+        <v>64879.58529832999</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -7638,13 +7638,13 @@
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>38394.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB71" t="n">
         <v>0</v>
@@ -7685,34 +7685,34 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2637524686666668</v>
+        <v>1.693752468666667</v>
       </c>
       <c r="L72" t="n">
-        <v>237.3772218000001</v>
+        <v>1524.3772218</v>
       </c>
       <c r="M72" t="n">
-        <v>48151.81970877916</v>
+        <v>66403.96252012999</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -7739,13 +7739,13 @@
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>39681.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
@@ -7786,34 +7786,34 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2730157173333334</v>
+        <v>1.703015717333333</v>
       </c>
       <c r="L73" t="n">
-        <v>245.7141456000001</v>
+        <v>1532.7141456</v>
       </c>
       <c r="M73" t="n">
-        <v>48397.53385437917</v>
+        <v>67936.67666572999</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -7840,13 +7840,13 @@
         <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA73" t="n">
-        <v>40968.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB73" t="n">
         <v>0</v>
@@ -7887,34 +7887,34 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2727822562222222</v>
+        <v>1.702782256222222</v>
       </c>
       <c r="L74" t="n">
-        <v>245.5040306</v>
+        <v>1532.5040306</v>
       </c>
       <c r="M74" t="n">
-        <v>48643.03788497917</v>
+        <v>69469.18069632999</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -7941,13 +7941,13 @@
         <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z74" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA74" t="n">
-        <v>42255.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB74" t="n">
         <v>0</v>
@@ -7988,34 +7988,34 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="H75" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="I75" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="J75" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2641142347301586</v>
+        <v>-7.705885765269842</v>
       </c>
       <c r="L75" t="n">
-        <v>237.7028112571427</v>
+        <v>-6935.297188742858</v>
       </c>
       <c r="M75" t="n">
-        <v>48880.74069623631</v>
+        <v>62533.88350758713</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -8042,13 +8042,13 @@
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>43542.49999999997</v>
+        <v>24503</v>
       </c>
       <c r="AB75" t="n">
         <v>0</v>
@@ -8089,43 +8089,43 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="H76" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="I76" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="J76" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2724781835555556</v>
+        <v>-7.697521816444445</v>
       </c>
       <c r="L76" t="n">
-        <v>245.2303652000001</v>
+        <v>-6927.7696348</v>
       </c>
       <c r="M76" t="n">
-        <v>49125.97106143631</v>
+        <v>55606.11387278713</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="O76" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>40.56845</v>
       </c>
       <c r="T76" t="n">
         <v>0</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="Z76" t="n">
-        <v>1287</v>
+        <v>8460</v>
       </c>
       <c r="AA76" t="n">
-        <v>44829.49999999997</v>
+        <v>32963</v>
       </c>
       <c r="AB76" t="n">
         <v>0</v>
@@ -8190,34 +8190,34 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="H77" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="I77" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="K77" t="n">
-        <v>0.280618214952381</v>
+        <v>-7.689381785047619</v>
       </c>
       <c r="L77" t="n">
-        <v>252.5563934571429</v>
+        <v>-6920.443606542857</v>
       </c>
       <c r="M77" t="n">
-        <v>49378.52745489345</v>
+        <v>48685.67026624427</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="O77" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>40.56845</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="Z77" t="n">
-        <v>1287</v>
+        <v>8460</v>
       </c>
       <c r="AA77" t="n">
-        <v>46116.49999999997</v>
+        <v>41423</v>
       </c>
       <c r="AB77" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="H78" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="I78" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="J78" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2694764587301586</v>
+        <v>-7.700523541269842</v>
       </c>
       <c r="L78" t="n">
-        <v>242.5288128571427</v>
+        <v>-6930.471187142858</v>
       </c>
       <c r="M78" t="n">
-        <v>49621.05626775059</v>
+        <v>41755.19907910141</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="O78" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>40.56845</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -8345,13 +8345,13 @@
         <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="Z78" t="n">
-        <v>1287</v>
+        <v>8460</v>
       </c>
       <c r="AA78" t="n">
-        <v>47403.49999999997</v>
+        <v>49883</v>
       </c>
       <c r="AB78" t="n">
         <v>0</v>
@@ -8392,34 +8392,34 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2614486279047619</v>
+        <v>1.691448627904762</v>
       </c>
       <c r="L79" t="n">
-        <v>235.3037651142857</v>
+        <v>1522.303765114286</v>
       </c>
       <c r="M79" t="n">
-        <v>49856.36003286488</v>
+        <v>43277.5028442157</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="O79" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>39.09815</v>
       </c>
       <c r="T79" t="n">
         <v>0</v>
@@ -8446,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="Z79" t="n">
-        <v>1287</v>
+        <v>8460</v>
       </c>
       <c r="AA79" t="n">
-        <v>48690.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB79" t="n">
         <v>0</v>
@@ -8493,34 +8493,34 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.266457034063492</v>
+        <v>1.696457034063492</v>
       </c>
       <c r="L80" t="n">
-        <v>239.8113306571428</v>
+        <v>1526.811330657143</v>
       </c>
       <c r="M80" t="n">
-        <v>50096.17136352201</v>
+        <v>44804.31417487284</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z80" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA80" t="n">
-        <v>49977.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB80" t="n">
         <v>0</v>
@@ -8594,34 +8594,34 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2654841765079365</v>
+        <v>1.695484176507936</v>
       </c>
       <c r="L81" t="n">
-        <v>238.9357588571429</v>
+        <v>1525.935758857143</v>
       </c>
       <c r="M81" t="n">
-        <v>50335.10712237916</v>
+        <v>46330.24993372998</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -8648,13 +8648,13 @@
         <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA81" t="n">
-        <v>51264.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB81" t="n">
         <v>0</v>
@@ -8695,34 +8695,34 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.27809784584127</v>
+        <v>1.70809784584127</v>
       </c>
       <c r="L82" t="n">
-        <v>250.288061257143</v>
+        <v>1537.288061257143</v>
       </c>
       <c r="M82" t="n">
-        <v>50585.3951836363</v>
+        <v>47867.53799498713</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -8749,13 +8749,13 @@
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>52551.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB82" t="n">
         <v>0</v>
@@ -8796,34 +8796,34 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2853712236507935</v>
+        <v>1.715371223650793</v>
       </c>
       <c r="L83" t="n">
-        <v>256.8341012857142</v>
+        <v>1543.834101285714</v>
       </c>
       <c r="M83" t="n">
-        <v>50842.22928492202</v>
+        <v>49411.37209627284</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z83" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA83" t="n">
-        <v>53838.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB83" t="n">
         <v>0</v>
@@ -8897,34 +8897,34 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2812460391111113</v>
+        <v>1.711246039111111</v>
       </c>
       <c r="L84" t="n">
-        <v>253.1214352000002</v>
+        <v>1540.1214352</v>
       </c>
       <c r="M84" t="n">
-        <v>51095.35072012202</v>
+        <v>50951.49353147284</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -8951,13 +8951,13 @@
         <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA84" t="n">
-        <v>55125.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB84" t="n">
         <v>0</v>
@@ -8998,34 +8998,34 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2708361844444445</v>
+        <v>1.700836184444444</v>
       </c>
       <c r="L85" t="n">
-        <v>243.752566</v>
+        <v>1530.752566</v>
       </c>
       <c r="M85" t="n">
-        <v>51339.10328612202</v>
+        <v>52482.24609747285</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -9052,13 +9052,13 @@
         <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA85" t="n">
-        <v>56412.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB85" t="n">
         <v>0</v>
@@ -9117,16 +9117,16 @@
         <v>1534.764602314286</v>
       </c>
       <c r="M86" t="n">
-        <v>52873.86788843631</v>
+        <v>54017.01069978713</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -9153,13 +9153,13 @@
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AA86" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB86" t="n">
         <v>0</v>
@@ -9218,7 +9218,7 @@
         <v>1533.586543857142</v>
       </c>
       <c r="M87" t="n">
-        <v>54407.45443229345</v>
+        <v>55550.59724364428</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB87" t="n">
         <v>0</v>
@@ -9319,7 +9319,7 @@
         <v>1527.354641542857</v>
       </c>
       <c r="M88" t="n">
-        <v>55934.80907383631</v>
+        <v>57077.95188518713</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB88" t="n">
         <v>0</v>
@@ -9420,7 +9420,7 @@
         <v>1534.0139042</v>
       </c>
       <c r="M89" t="n">
-        <v>57468.82297803631</v>
+        <v>58611.96578938713</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="AA89" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB89" t="n">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>1528.541520714286</v>
       </c>
       <c r="M90" t="n">
-        <v>58997.3644987506</v>
+        <v>60140.50731010142</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="AA90" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB90" t="n">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>1529.273344028572</v>
       </c>
       <c r="M91" t="n">
-        <v>60526.63784277917</v>
+        <v>61669.78065412999</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="AA91" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB91" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>1522.562314771428</v>
       </c>
       <c r="M92" t="n">
-        <v>62049.2001575506</v>
+        <v>63192.34296890142</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="AA92" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB92" t="n">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>1535.708093657143</v>
       </c>
       <c r="M93" t="n">
-        <v>63584.90825120774</v>
+        <v>64728.05106255857</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="AA93" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB93" t="n">
         <v>0</v>
@@ -9925,7 +9925,7 @@
         <v>1539.337320828571</v>
       </c>
       <c r="M94" t="n">
-        <v>65124.24557203631</v>
+        <v>66267.38838338714</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="AA94" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB94" t="n">
         <v>0</v>
@@ -10026,7 +10026,7 @@
         <v>1533.907482514285</v>
       </c>
       <c r="M95" t="n">
-        <v>66658.1530545506</v>
+        <v>67801.29586590143</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="AA95" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB95" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>1538.8196308</v>
       </c>
       <c r="M96" t="n">
-        <v>68196.9726853506</v>
+        <v>69340.11549670143</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AA96" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB96" t="n">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>1541.884503285714</v>
       </c>
       <c r="M97" t="n">
-        <v>69738.85718863632</v>
+        <v>70881.99999998715</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="AA97" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB97" t="n">
         <v>0</v>
@@ -10329,7 +10329,7 @@
         <v>-10752.0876418</v>
       </c>
       <c r="M98" t="n">
-        <v>58986.76954683632</v>
+        <v>60129.91235818715</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -10353,25 +10353,25 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>6.829999999999999</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>6.829999999999999</v>
+        <v>0</v>
       </c>
       <c r="W98" t="n">
-        <v>6.829999999999999</v>
+        <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>-6.83</v>
+        <v>0</v>
       </c>
       <c r="Z98" t="n">
-        <v>-6147</v>
+        <v>0</v>
       </c>
       <c r="AA98" t="n">
-        <v>51552.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB98" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>-10755.08038674286</v>
       </c>
       <c r="M99" t="n">
-        <v>48231.68916009347</v>
+        <v>49374.8319714443</v>
       </c>
       <c r="N99" t="n">
         <v>4.6</v>
@@ -10454,25 +10454,25 @@
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>6.83</v>
+        <v>13.66</v>
       </c>
       <c r="Z99" t="n">
-        <v>6147</v>
+        <v>12294</v>
       </c>
       <c r="AA99" t="n">
-        <v>57699.49999999997</v>
+        <v>58343</v>
       </c>
       <c r="AB99" t="n">
         <v>0</v>
@@ -10531,7 +10531,7 @@
         <v>-10756.83009817143</v>
       </c>
       <c r="M100" t="n">
-        <v>37474.85906192204</v>
+        <v>38618.00187327287</v>
       </c>
       <c r="N100" t="n">
         <v>4.6</v>
@@ -10555,22 +10555,22 @@
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>6.83</v>
+        <v>13.66</v>
       </c>
       <c r="Z100" t="n">
-        <v>6147</v>
+        <v>12294</v>
       </c>
       <c r="AA100" t="n">
         <v>58343</v>
